--- a/RS_Servers_2019/Server/cases/RS_Prolog_Testing_Results_03_3pm.xlsx
+++ b/RS_Servers_2019/Server/cases/RS_Prolog_Testing_Results_03_3pm.xlsx
@@ -591,7 +591,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
